--- a/ENACOM_GH.xlsx
+++ b/ENACOM_GH.xlsx
@@ -39,9 +39,6 @@
     <t>CLARO (AMX/TELMEX)</t>
   </si>
   <si>
-    <t>DIRECTV ARGENTINA S.A./AT&amp;T</t>
-  </si>
-  <si>
     <t>TELECENTRO S.A.</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>TELERED (VER TV S A Y TELEDIF SAN MIGUEL A)</t>
+  </si>
+  <si>
+    <t>DIRECTV ARGENTINA S.A.</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -572,19 +572,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -648,14 +635,10 @@
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="35" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="35" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="35" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="36" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="36" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -668,16 +651,19 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="34" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="34" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="35" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="36" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1029,7 +1015,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,230 +1027,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>372215639522.69006</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>88727731418.37001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="13">
         <f>C2+B2</f>
         <v>460943370941.06006</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>261184882359.75</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>9702137405.0999985</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="13">
         <f t="shared" ref="D3:D16" si="0">C3+B3</f>
         <v>270887019764.85001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>197033677358.40997</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>4191479544.4700003</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="13">
         <f t="shared" si="0"/>
         <v>201225156902.87997</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1785083970.48</v>
+      </c>
+      <c r="C5" s="1">
+        <v>101378545314.61002</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>103163629285.09001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>3467396458.9699993</v>
-      </c>
-      <c r="C5" s="3">
-        <v>101378545314.61002</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>104845941773.58002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>49783809139.479996</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>34765799228.719994</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>84549608368.199982</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
         <v>4797455311.5500002</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>8075962056.1300011</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="14">
         <f t="shared" si="0"/>
         <v>12873417367.68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
         <v>10131336464.57</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6">
+      <c r="C8" s="3"/>
+      <c r="D8" s="14">
         <f t="shared" si="0"/>
         <v>10131336464.57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
         <v>11253743023.060001</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6">
+      <c r="C9" s="3"/>
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
         <v>11253743023.060001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11908070231.99</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>11908070231.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7">
-        <v>10497977499.629999</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6">
+      <c r="B11" s="2">
+        <v>3951631352.2000003</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3905775688.8599997</v>
+      </c>
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
-        <v>10497977499.629999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+        <v>7857407041.0599995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
-        <v>3268666943.3699999</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3905775688.8599997</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B12" s="2">
+        <v>4122487164.6999998</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5998479608.7200003</v>
+      </c>
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
-        <v>7174442632.2299995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+        <v>10120966773.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
-        <v>3591303474.4200001</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5998479608.7200003</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B13" s="2">
+        <v>6804835332.3099995</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
-        <v>9589783083.1399994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+        <v>6804835332.3099995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
-        <v>6335046995.9700012</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4">
+      <c r="B14" s="2">
+        <v>6068088682.04</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
-        <v>6335046995.9700012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+        <v>6068088682.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5">
-        <v>5525533297.3400002</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>5525533297.3400002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
         <v>6161989021.1300001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>6161989021.1300001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5">
-        <v>3170971685.7800002</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3554471505.0800004</v>
+      </c>
+      <c r="C16" s="2">
         <v>4733992001.3299999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
-        <v>7904963687.1100006</v>
+        <v>8288463506.4099998</v>
       </c>
     </row>
   </sheetData>

--- a/ENACOM_GH.xlsx
+++ b/ENACOM_GH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="11835"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="19440" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,14 +1189,14 @@
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>4122487164.6999998</v>
+        <v>5422117878</v>
       </c>
       <c r="C12" s="2">
         <v>5998479608.7200003</v>
       </c>
       <c r="D12" s="15">
-        <f t="shared" si="0"/>
-        <v>10120966773.42</v>
+        <f>C12+B12</f>
+        <v>11420597486.720001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
